--- a/src/main/webapp/WEB-INF/book/performance_report.xlsx
+++ b/src/main/webapp/WEB-INF/book/performance_report.xlsx
@@ -80,7 +80,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="72"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -191,6 +191,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -230,8 +234,8 @@
             <a:noFill/>
             <a:ln w="9525">
               <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:headEnd/>
+              <a:tailEnd/>
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
@@ -297,8 +301,8 @@
             <a:noFill/>
             <a:ln w="9525">
               <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:headEnd/>
+              <a:tailEnd/>
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
@@ -364,8 +368,8 @@
             <a:noFill/>
             <a:ln w="9525">
               <a:miter lim="800000"/>
-              <a:headEnd type="none" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:headEnd/>
+              <a:tailEnd/>
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
@@ -385,6 +389,73 @@
                   <a:cs typeface="Helvetica"/>
                 </a:rPr>
                 <a:t>Reject</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>927100</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="cancel" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica"/>
+                  <a:ea typeface="Helvetica"/>
+                  <a:cs typeface="Helvetica"/>
+                </a:rPr>
+                <a:t>Cancel</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -663,7 +734,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +764,7 @@
       </c>
       <c r="F3" s="3">
         <f ca="1">TODAY()</f>
-        <v>43370</v>
+        <v>43375</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="24" x14ac:dyDescent="0.2">
@@ -705,7 +776,7 @@
       </c>
       <c r="D4" s="4">
         <f ca="1">TODAY()</f>
-        <v>43370</v>
+        <v>43375</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>6</v>
@@ -811,6 +882,29 @@
           </mc:Choice>
           <mc:Fallback/>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId6" name="cancel">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>63500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>927100</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
     <mc:Fallback/>
